--- a/biology/Zoologie/Foulehaio_carunculatus/Foulehaio_carunculatus.xlsx
+++ b/biology/Zoologie/Foulehaio_carunculatus/Foulehaio_carunculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Foulehaio carunculatus est une espèce de passereaux de la famille des Meliphagidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite de l'étude phylogénique d'Andersen et al. (2014), le Congrès ornithologique international, dans sa classification de référence (version 5.2, 2015), divise cette espèce, jusque-là constituée de trois sous-espèces, en trois espèces distinctes : Foulehaio carunculatus (Gmelin) 1788 (ci-contre), Foulehaio procerior (Finsch &amp; Hartlaub) 1867 et Foulehaio taviunensis (Wiglesworth) 1891[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de l'étude phylogénique d'Andersen et al. (2014), le Congrès ornithologique international, dans sa classification de référence (version 5.2, 2015), divise cette espèce, jusque-là constituée de trois sous-espèces, en trois espèces distinctes : Foulehaio carunculatus (Gmelin) 1788 (ci-contre), Foulehaio procerior (Finsch &amp; Hartlaub) 1867 et Foulehaio taviunensis (Wiglesworth) 1891.
 Quand ces espèces étaient réunies dans le même taxon, celui-ci avait pour nom normalisé CINFO Méliphage foulehaio.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve dans l'est des îles Fidji, aux îles Samoa et Tonga[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve dans l'est des îles Fidji, aux îles Samoa et Tonga.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les forêts humides tropicales et subtropicales ainsi que les mangroves.
 </t>
